--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Pros1-Mertk.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Pros1-Mertk.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.77452597859094</v>
+        <v>18.741769</v>
       </c>
       <c r="H2">
-        <v>8.77452597859094</v>
+        <v>56.225307</v>
       </c>
       <c r="I2">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="J2">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.508379426279349</v>
+        <v>9.266076</v>
       </c>
       <c r="N2">
-        <v>8.508379426279349</v>
+        <v>27.798228</v>
       </c>
       <c r="O2">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555814</v>
       </c>
       <c r="P2">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555816</v>
       </c>
       <c r="Q2">
-        <v>74.65699631159683</v>
+        <v>173.662655928444</v>
       </c>
       <c r="R2">
-        <v>74.65699631159683</v>
+        <v>1562.963903355996</v>
       </c>
       <c r="S2">
-        <v>0.06667416442905501</v>
+        <v>0.1221611162599469</v>
       </c>
       <c r="T2">
-        <v>0.06667416442905501</v>
+        <v>0.1221611162599469</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.77452597859094</v>
+        <v>18.741769</v>
       </c>
       <c r="H3">
-        <v>8.77452597859094</v>
+        <v>56.225307</v>
       </c>
       <c r="I3">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="J3">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.96574430593504</v>
+        <v>2.181666333333333</v>
       </c>
       <c r="N3">
-        <v>1.96574430593504</v>
+        <v>6.544999</v>
       </c>
       <c r="O3">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="P3">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="Q3">
-        <v>17.24847447969422</v>
+        <v>40.88828645441033</v>
       </c>
       <c r="R3">
-        <v>17.24847447969422</v>
+        <v>367.994578089693</v>
       </c>
       <c r="S3">
-        <v>0.01540415072164981</v>
+        <v>0.02876242268968498</v>
       </c>
       <c r="T3">
-        <v>0.01540415072164981</v>
+        <v>0.02876242268968498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.77452597859094</v>
+        <v>18.741769</v>
       </c>
       <c r="H4">
-        <v>8.77452597859094</v>
+        <v>56.225307</v>
       </c>
       <c r="I4">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="J4">
-        <v>0.1181455333724109</v>
+        <v>0.2218531826860132</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.60258602576448</v>
+        <v>5.380103666666667</v>
       </c>
       <c r="N4">
-        <v>4.60258602576448</v>
+        <v>16.140311</v>
       </c>
       <c r="O4">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="P4">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="Q4">
-        <v>40.38551065177006</v>
+        <v>100.8326601167197</v>
       </c>
       <c r="R4">
-        <v>40.38551065177006</v>
+        <v>907.493941050477</v>
       </c>
       <c r="S4">
-        <v>0.03606721822170609</v>
+        <v>0.07092964373638133</v>
       </c>
       <c r="T4">
-        <v>0.03606721822170609</v>
+        <v>0.07092964373638135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.6959104009055</v>
+        <v>53.77230066666667</v>
       </c>
       <c r="H5">
-        <v>53.6959104009055</v>
+        <v>161.316902</v>
       </c>
       <c r="I5">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="J5">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.508379426279349</v>
+        <v>9.266076</v>
       </c>
       <c r="N5">
-        <v>8.508379426279349</v>
+        <v>27.798228</v>
       </c>
       <c r="O5">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555814</v>
       </c>
       <c r="P5">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555816</v>
       </c>
       <c r="Q5">
-        <v>456.8651793304036</v>
+        <v>498.258224672184</v>
       </c>
       <c r="R5">
-        <v>456.8651793304036</v>
+        <v>4484.324022049656</v>
       </c>
       <c r="S5">
-        <v>0.408014058875998</v>
+        <v>0.3504943569257249</v>
       </c>
       <c r="T5">
-        <v>0.408014058875998</v>
+        <v>0.350494356925725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>53.6959104009055</v>
+        <v>53.77230066666667</v>
       </c>
       <c r="H6">
-        <v>53.6959104009055</v>
+        <v>161.316902</v>
       </c>
       <c r="I6">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="J6">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.96574430593504</v>
+        <v>2.181666333333333</v>
       </c>
       <c r="N6">
-        <v>1.96574430593504</v>
+        <v>6.544999</v>
       </c>
       <c r="O6">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="P6">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="Q6">
-        <v>105.5524301225781</v>
+        <v>117.3132180303442</v>
       </c>
       <c r="R6">
-        <v>105.5524301225781</v>
+        <v>1055.818962273098</v>
       </c>
       <c r="S6">
-        <v>0.09426604912560514</v>
+        <v>0.0825227138789031</v>
       </c>
       <c r="T6">
-        <v>0.09426604912560514</v>
+        <v>0.0825227138789031</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>53.6959104009055</v>
+        <v>53.77230066666667</v>
       </c>
       <c r="H7">
-        <v>53.6959104009055</v>
+        <v>161.316902</v>
       </c>
       <c r="I7">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="J7">
-        <v>0.7229942665519247</v>
+        <v>0.6365224138259964</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.60258602576448</v>
+        <v>5.380103666666667</v>
       </c>
       <c r="N7">
-        <v>4.60258602576448</v>
+        <v>16.140311</v>
       </c>
       <c r="O7">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="P7">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="Q7">
-        <v>247.1400468519092</v>
+        <v>289.3005519818358</v>
       </c>
       <c r="R7">
-        <v>247.1400468519092</v>
+        <v>2603.704967836522</v>
       </c>
       <c r="S7">
-        <v>0.2207141585503216</v>
+        <v>0.2035053430213683</v>
       </c>
       <c r="T7">
-        <v>0.2207141585503216</v>
+        <v>0.2035053430213683</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.7983550688644</v>
+        <v>11.964182</v>
       </c>
       <c r="H8">
-        <v>11.7983550688644</v>
+        <v>35.892546</v>
       </c>
       <c r="I8">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="J8">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.508379426279349</v>
+        <v>9.266076</v>
       </c>
       <c r="N8">
-        <v>8.508379426279349</v>
+        <v>27.798228</v>
       </c>
       <c r="O8">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555814</v>
       </c>
       <c r="P8">
-        <v>0.5643392731478803</v>
+        <v>0.5506394579555816</v>
       </c>
       <c r="Q8">
-        <v>100.3848815318645</v>
+        <v>110.861019689832</v>
       </c>
       <c r="R8">
-        <v>100.3848815318645</v>
+        <v>997.7491772084879</v>
       </c>
       <c r="S8">
-        <v>0.08965104984282732</v>
+        <v>0.07798398476990961</v>
       </c>
       <c r="T8">
-        <v>0.08965104984282732</v>
+        <v>0.07798398476990961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.7983550688644</v>
+        <v>11.964182</v>
       </c>
       <c r="H9">
-        <v>11.7983550688644</v>
+        <v>35.892546</v>
       </c>
       <c r="I9">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="J9">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.96574430593504</v>
+        <v>2.181666333333333</v>
       </c>
       <c r="N9">
-        <v>1.96574430593504</v>
+        <v>6.544999</v>
       </c>
       <c r="O9">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="P9">
-        <v>0.1303828446319153</v>
+        <v>0.1296462026888844</v>
       </c>
       <c r="Q9">
-        <v>23.19254929602001</v>
+        <v>26.10185307527266</v>
       </c>
       <c r="R9">
-        <v>23.19254929602001</v>
+        <v>234.916677677454</v>
       </c>
       <c r="S9">
-        <v>0.02071264478466034</v>
+        <v>0.01836106612029636</v>
       </c>
       <c r="T9">
-        <v>0.02071264478466034</v>
+        <v>0.01836106612029636</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.7983550688644</v>
+        <v>11.964182</v>
       </c>
       <c r="H10">
-        <v>11.7983550688644</v>
+        <v>35.892546</v>
       </c>
       <c r="I10">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="J10">
-        <v>0.1588602000756645</v>
+        <v>0.1416244034879904</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.60258602576448</v>
+        <v>5.380103666666667</v>
       </c>
       <c r="N10">
-        <v>4.60258602576448</v>
+        <v>16.140311</v>
       </c>
       <c r="O10">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="P10">
-        <v>0.3052778822202045</v>
+        <v>0.3197143393555341</v>
       </c>
       <c r="Q10">
-        <v>54.3029441669628</v>
+        <v>64.36853944686733</v>
       </c>
       <c r="R10">
-        <v>54.3029441669628</v>
+        <v>579.316855021806</v>
       </c>
       <c r="S10">
-        <v>0.04849650544817681</v>
+        <v>0.04527935259778446</v>
       </c>
       <c r="T10">
-        <v>0.04849650544817681</v>
+        <v>0.04527935259778446</v>
       </c>
     </row>
   </sheetData>
